--- a/Summary POP 24 Feb.xlsx
+++ b/Summary POP 24 Feb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xlapp.antoniusl\Desktop\Routine Works\POP\POP 20170217\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xlapp.antoniusl\Desktop\Routine Works\POP\POP 2017-02-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="POP 17 Feb" sheetId="1" r:id="rId1"/>
@@ -992,62 +992,62 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1330,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G14"/>
+      <selection activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,256 +1356,253 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="43"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="41">
         <v>396518</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="56"/>
+      <c r="G2" s="53"/>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
+      <c r="A3" s="51">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="44">
         <v>396368</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="54"/>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="47" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="44">
         <v>395538</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="54"/>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="44">
         <v>396378</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="54"/>
       <c r="H5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="47" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="51"/>
+      <c r="G6" s="54"/>
       <c r="H6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="47" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="54"/>
       <c r="H7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="47" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="54"/>
       <c r="H8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="47" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="51"/>
+      <c r="G9" s="54"/>
       <c r="H9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="47" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="51"/>
+      <c r="G10" s="54"/>
       <c r="H10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="47" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="51"/>
+      <c r="G11" s="54"/>
       <c r="H11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="47" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="51"/>
+      <c r="G12" s="54"/>
       <c r="H12">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="47" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="51"/>
+      <c r="G13" s="54"/>
       <c r="H13">
         <v>12</v>
       </c>
@@ -1614,28 +1611,36 @@
       <c r="A14" s="35">
         <v>3</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="57">
+      <c r="C14" s="50"/>
+      <c r="E14" s="47">
         <v>398008</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="48" t="s">
         <v>136</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
     </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:B13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="F1:G1"/>
@@ -1652,10 +1657,12 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="LastActive" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -1764,7 +1771,7 @@
         <v>insert into ex_upcc_xl_serviceinfo values(131410,'395538','395538','AO',1,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,0);</v>
       </c>
       <c r="E7" s="29" t="str">
-        <f t="shared" ref="E6:E16" si="0">"INSERT INTO ex_upcc_xl_variantinfo VALUES ("&amp;C7&amp;",'"&amp;A7&amp;"','"&amp;A7&amp;"',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'2',NULL,NULL);"</f>
+        <f t="shared" ref="E7:E16" si="0">"INSERT INTO ex_upcc_xl_variantinfo VALUES ("&amp;C7&amp;",'"&amp;A7&amp;"','"&amp;A7&amp;"',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'2',NULL,NULL);"</f>
         <v>INSERT INTO ex_upcc_xl_variantinfo VALUES (961,'395538','395538',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'2',NULL,NULL);</v>
       </c>
     </row>
@@ -2154,7 +2161,7 @@
       <c r="B2" s="7">
         <v>513785094</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="58" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -2180,7 +2187,7 @@
       <c r="B3" s="7">
         <v>513793064</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
@@ -2204,7 +2211,7 @@
       <c r="B4" s="7">
         <v>513755504</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
@@ -2228,7 +2235,7 @@
       <c r="B5" s="7">
         <v>342668</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
@@ -2252,7 +2259,7 @@
       <c r="B6" s="7">
         <v>350778</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
@@ -2276,7 +2283,7 @@
       <c r="B7" s="7">
         <v>373088</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="8" t="s">
         <v>32</v>
       </c>
@@ -2300,7 +2307,7 @@
       <c r="B8" s="7">
         <v>372818</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="8" t="s">
         <v>36</v>
       </c>
@@ -2324,7 +2331,7 @@
       <c r="B9" s="7">
         <v>513803564</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
@@ -2348,7 +2355,7 @@
       <c r="B10" s="7">
         <v>351688</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="8" t="s">
         <v>44</v>
       </c>
@@ -2372,7 +2379,7 @@
       <c r="B11" s="13">
         <v>378818</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="14" t="s">
         <v>48</v>
       </c>
@@ -2394,7 +2401,7 @@
       <c r="B12" s="13">
         <v>513807684</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="14" t="s">
         <v>51</v>
       </c>
@@ -2416,7 +2423,7 @@
       <c r="B13" s="13">
         <v>365658</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="14" t="s">
         <v>54</v>
       </c>
@@ -2438,7 +2445,7 @@
       <c r="B14" s="13">
         <v>365668</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="14" t="s">
         <v>57</v>
       </c>
@@ -2460,7 +2467,7 @@
       <c r="B15" s="7">
         <v>513791094</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="8" t="s">
         <v>60</v>
       </c>
@@ -2484,7 +2491,7 @@
       <c r="B16" s="7">
         <v>369698</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="8" t="s">
         <v>64</v>
       </c>
